--- a/Prime Rib Shopping.xlsx
+++ b/Prime Rib Shopping.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Office Documents\Recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A775E9C5-3323-4FB9-9A54-FD1697610925}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD65487C-04EC-43BC-9B00-E958868A7D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="24840" windowHeight="10770" xr2:uid="{E507F307-8855-40C7-ABAE-3141DD388CDB}"/>
+    <workbookView xWindow="2400" yWindow="540" windowWidth="24870" windowHeight="14775" xr2:uid="{E507F307-8855-40C7-ABAE-3141DD388CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$E$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$3:$E$57</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="61">
   <si>
     <t>Ingredient</t>
   </si>
@@ -183,7 +187,31 @@
     <t>Iced Tea</t>
   </si>
   <si>
-    <t>Updated 12/26/2019</t>
+    <t>Aluminum Foil Pan</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>Brussels Sprouts</t>
+  </si>
+  <si>
+    <t>1.5 lbs Brussels Sprouts</t>
+  </si>
+  <si>
+    <t>3 T Olive Oil</t>
+  </si>
+  <si>
+    <t>3/4 t salt</t>
+  </si>
+  <si>
+    <t>1/2 t black pepper</t>
+  </si>
+  <si>
+    <t>Have</t>
+  </si>
+  <si>
+    <t>Updated 12/20/2019</t>
   </si>
 </sst>
 </file>
@@ -207,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,8 +278,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -259,34 +293,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -606,558 +664,678 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:E51"/>
+  <dimension ref="A2:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="32.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="C36" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="C39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
+      <c r="C46" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+      <c r="C51" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="C53" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="C54" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
     </row>
   </sheetData>
-  <sortState ref="B4:E40">
-    <sortCondition ref="C4:C40"/>
+  <autoFilter ref="B3:E51" xr:uid="{4B5DFD91-B9A9-43B2-B765-E7256B02CD9E}"/>
+  <sortState ref="B4:E57">
+    <sortCondition ref="C4:C57"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup scale="85" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Prime Rib Shopping.xlsx
+++ b/Prime Rib Shopping.xlsx
@@ -8,28 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Office Documents\Recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD65487C-04EC-43BC-9B00-E958868A7D84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769F71AB-FB20-4484-A5CC-ECEA5879492B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="540" windowWidth="24870" windowHeight="14775" xr2:uid="{E507F307-8855-40C7-ABAE-3141DD388CDB}"/>
+    <workbookView xWindow="2415" yWindow="705" windowWidth="24870" windowHeight="14775" xr2:uid="{E507F307-8855-40C7-ABAE-3141DD388CDB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Shopping List" sheetId="1" r:id="rId1"/>
+    <sheet name="Schedule" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$E$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$3:$E$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shopping List'!$B$3:$E$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Shopping List'!$A$3:$E$57</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="99">
   <si>
     <t>Ingredient</t>
   </si>
@@ -212,6 +219,120 @@
   </si>
   <si>
     <t>Updated 12/20/2019</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Diner Served</t>
+  </si>
+  <si>
+    <t>Roast Hour 1 (60)</t>
+  </si>
+  <si>
+    <t>Roast Hour 2 (60)</t>
+  </si>
+  <si>
+    <t>Roast Hour 3 (60)</t>
+  </si>
+  <si>
+    <t>WSM Preheat to 250°F (60)</t>
+  </si>
+  <si>
+    <t>Roast Hour 4 (60)</t>
+  </si>
+  <si>
+    <t>Prepare Au Jus (15)</t>
+  </si>
+  <si>
+    <t>Carve Prime Rib (15)</t>
+  </si>
+  <si>
+    <t>Minion Chimney (20)</t>
+  </si>
+  <si>
+    <t>Chimney (30)</t>
+  </si>
+  <si>
+    <t>WK Preheat to 450°F /2nd Chimney (45)</t>
+  </si>
+  <si>
+    <t>Prepare Gravy (15)</t>
+  </si>
+  <si>
+    <t>Carve Turkey (15)</t>
+  </si>
+  <si>
+    <t>Prepare Mashed Potatoes (90)</t>
+  </si>
+  <si>
+    <t>Prepare Brussels Sprouts (30)</t>
+  </si>
+  <si>
+    <t>Roast Brussels Sprouts (45)</t>
+  </si>
+  <si>
+    <t>Dinner Served</t>
+  </si>
+  <si>
+    <t>Turkey Finish begin at 110°F (30)</t>
+  </si>
+  <si>
+    <t>Side Prep</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>Appetizer Prep (15)</t>
+  </si>
+  <si>
+    <t>Guests Arrive</t>
+  </si>
+  <si>
+    <t>Trim Prime Rib, tie, rub, tray (30)</t>
+  </si>
+  <si>
+    <t>Wash Turkey, Season, tray (30)</t>
+  </si>
+  <si>
+    <t>Christmas Morning Casserole (30)</t>
+  </si>
+  <si>
+    <t>Reverse Sear at 122°F (WK) (20)</t>
+  </si>
+  <si>
+    <t>Roast Finish, begin at 117°F, Chimney Start (30)</t>
+  </si>
+  <si>
+    <t>Pull at 158°F</t>
+  </si>
+  <si>
+    <t>Preheat Oven to 400°F (15)</t>
+  </si>
+  <si>
+    <t>White Bread</t>
+  </si>
+  <si>
+    <t>1 lb sausage</t>
+  </si>
+  <si>
+    <t>2 C Shredded Cheddar</t>
+  </si>
+  <si>
+    <t>3 Cups Whole Milk</t>
+  </si>
+  <si>
+    <t>6 Eggs</t>
+  </si>
+  <si>
+    <t>3/4 T dry mustard</t>
+  </si>
+  <si>
+    <t>1 can Cream of Mushroom Soup</t>
+  </si>
+  <si>
+    <t>Breakfast Casserole</t>
   </si>
 </sst>
 </file>
@@ -235,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,8 +405,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -308,11 +459,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,6 +607,84 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -664,10 +1004,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E57"/>
+  <dimension ref="A2:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,6 +1670,85 @@
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
     </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+    </row>
   </sheetData>
   <autoFilter ref="B3:E51" xr:uid="{4B5DFD91-B9A9-43B2-B765-E7256B02CD9E}"/>
   <sortState ref="B4:E57">
@@ -1338,4 +1757,335 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="85" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D93B2-6A05-4217-8083-D1FFAA465936}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35">
+        <v>0.42708333333333298</v>
+      </c>
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>0.4375</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35">
+        <v>0.44791666666666602</v>
+      </c>
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36">
+        <v>0.46875</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
+        <v>0.47916666666666602</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36">
+        <v>0.51041666666666596</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
+        <v>0.531249999999999</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
+        <v>0.562499999999999</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35">
+        <v>0.57291666666666596</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36">
+        <v>0.593749999999999</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="36">
+        <v>0.60416666666666596</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="36">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36">
+        <v>0.624999999999999</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="36">
+        <v>0.63541666666666596</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="35">
+        <v>0.64583333333333204</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35">
+        <v>0.656249999999999</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="36">
+        <v>0.67708333333333204</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="36">
+        <v>0.687499999999999</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="36">
+        <v>0.69791666666666596</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="35">
+        <v>0.70833333333333204</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="35">
+        <v>0.718749999999999</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="35">
+        <v>0.72916666666666496</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="D33" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35">
+        <v>0.73958333333333204</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25">
+        <v>0.749999999999999</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="25">
+        <v>0.76041666666666496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="25">
+        <v>0.77083333333333204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Prime Rib Shopping.xlsx
+++ b/Prime Rib Shopping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Office Documents\Recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769F71AB-FB20-4484-A5CC-ECEA5879492B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918F8314-DE7D-4B7E-9603-44DEFBA658EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2415" yWindow="705" windowWidth="24870" windowHeight="14775" xr2:uid="{E507F307-8855-40C7-ABAE-3141DD388CDB}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{E507F307-8855-40C7-ABAE-3141DD388CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping List" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
   <si>
     <t>Ingredient</t>
   </si>
@@ -230,18 +230,9 @@
     <t>Roast Hour 1 (60)</t>
   </si>
   <si>
-    <t>Roast Hour 2 (60)</t>
-  </si>
-  <si>
-    <t>Roast Hour 3 (60)</t>
-  </si>
-  <si>
     <t>WSM Preheat to 250°F (60)</t>
   </si>
   <si>
-    <t>Roast Hour 4 (60)</t>
-  </si>
-  <si>
     <t>Prepare Au Jus (15)</t>
   </si>
   <si>
@@ -290,15 +281,9 @@
     <t>Guests Arrive</t>
   </si>
   <si>
-    <t>Trim Prime Rib, tie, rub, tray (30)</t>
-  </si>
-  <si>
     <t>Wash Turkey, Season, tray (30)</t>
   </si>
   <si>
-    <t>Christmas Morning Casserole (30)</t>
-  </si>
-  <si>
     <t>Reverse Sear at 122°F (WK) (20)</t>
   </si>
   <si>
@@ -333,6 +318,24 @@
   </si>
   <si>
     <t>Breakfast Casserole</t>
+  </si>
+  <si>
+    <t>Trim Prime Rib, tie, rub, tray (60)</t>
+  </si>
+  <si>
+    <t>Roast Hour 1 (60) (44°F)</t>
+  </si>
+  <si>
+    <t>Roast Hour 2 (60) (~75°F)</t>
+  </si>
+  <si>
+    <t>Roast Hour 3 (60) (101°F)</t>
+  </si>
+  <si>
+    <t>Done (124°F)</t>
+  </si>
+  <si>
+    <t>Breakfast Casserole (30)</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,6 +688,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1006,7 +1021,7 @@
   </sheetPr>
   <dimension ref="A2:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
@@ -1673,10 +1688,10 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="37" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
@@ -1684,10 +1699,10 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="37" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D59" s="37"/>
       <c r="E59" s="37"/>
@@ -1695,10 +1710,10 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="37" t="s">
         <v>93</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>98</v>
       </c>
       <c r="D60" s="37"/>
       <c r="E60" s="37"/>
@@ -1706,10 +1721,10 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="37" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D61" s="37"/>
       <c r="E61" s="37" t="s">
@@ -1719,10 +1734,10 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D62" s="37"/>
       <c r="E62" s="37"/>
@@ -1730,10 +1745,10 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="37" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D63" s="37"/>
       <c r="E63" s="37"/>
@@ -1741,10 +1756,10 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="37" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D64" s="37"/>
       <c r="E64" s="37"/>
@@ -1763,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D93B2-6A05-4217-8083-D1FFAA465936}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,10 +1795,10 @@
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>2</v>
@@ -1799,23 +1814,23 @@
       <c r="A3" s="35">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="38"/>
+      <c r="C3" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="35">
         <v>0.42708333333333298</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="35">
         <v>0.4375</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>84</v>
-      </c>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
@@ -1828,7 +1843,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1836,24 +1851,24 @@
         <v>0.46875</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="35">
         <v>0.47916666666666602</v>
       </c>
+      <c r="B9" s="21" t="s">
+        <v>99</v>
+      </c>
       <c r="C9" s="16"/>
-      <c r="D9" s="33" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
         <v>0.48958333333333298</v>
       </c>
+      <c r="B10" s="18"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
@@ -1866,7 +1881,7 @@
         <v>0.51041666666666596</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,11 +1889,11 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
         <v>0.531249999999999</v>
       </c>
@@ -1891,15 +1906,19 @@
       </c>
       <c r="B15" s="22"/>
       <c r="C15" s="15"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35">
         <v>0.55208333333333304</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="29" t="s">
-        <v>64</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="35">
@@ -1921,7 +1940,7 @@
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1929,7 +1948,7 @@
         <v>0.593749999999999</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D20" s="30"/>
     </row>
@@ -1939,7 +1958,7 @@
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1953,16 +1972,16 @@
       <c r="A23" s="36">
         <v>0.624999999999999</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="30" t="s">
+        <v>98</v>
+      </c>
       <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36">
         <v>0.63541666666666596</v>
       </c>
-      <c r="C24" s="29" t="s">
-        <v>67</v>
-      </c>
+      <c r="C24" s="41"/>
       <c r="D24" s="29" t="s">
         <v>63</v>
       </c>
@@ -1972,9 +1991,9 @@
         <v>0.64583333333333204</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="16"/>
+        <v>73</v>
+      </c>
+      <c r="C25" s="39"/>
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1982,7 +2001,7 @@
         <v>0.656249999999999</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="16"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1990,9 +2009,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="15"/>
+        <v>79</v>
+      </c>
+      <c r="C27" s="40"/>
       <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2000,10 +2019,10 @@
         <v>0.67708333333333204</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2012,10 +2031,10 @@
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2023,7 +2042,7 @@
         <v>0.69791666666666596</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2031,10 +2050,10 @@
         <v>0.70833333333333204</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2042,10 +2061,10 @@
         <v>0.718749999999999</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2054,7 +2073,7 @@
       </c>
       <c r="B33" s="16"/>
       <c r="D33" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2063,7 +2082,7 @@
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2071,7 +2090,7 @@
         <v>0.749999999999999</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">

--- a/Prime Rib Shopping.xlsx
+++ b/Prime Rib Shopping.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Office Documents\Recipes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\keith-ryzen5\C\Recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918F8314-DE7D-4B7E-9603-44DEFBA658EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABFDF78-F1EA-4CCB-9950-AC64983856B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{E507F307-8855-40C7-ABAE-3141DD388CDB}"/>
+    <workbookView xWindow="885" yWindow="-120" windowWidth="23235" windowHeight="13740" activeTab="1" xr2:uid="{E507F307-8855-40C7-ABAE-3141DD388CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping List" sheetId="1" r:id="rId1"/>
     <sheet name="Schedule" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shopping List'!$B$3:$E$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Shopping List'!$A$3:$E$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Shopping List'!$B$3:$E$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Shopping List'!$A$2:$E$80</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="115">
   <si>
     <t>Ingredient</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Garlic Powder</t>
   </si>
   <si>
-    <t>Canola Oil</t>
-  </si>
-  <si>
     <t>Herbs du Provence</t>
   </si>
   <si>
@@ -71,15 +68,6 @@
     <t>Celery</t>
   </si>
   <si>
-    <t>Garlic</t>
-  </si>
-  <si>
-    <t>Beef Broth</t>
-  </si>
-  <si>
-    <t>Merlot</t>
-  </si>
-  <si>
     <t>Dill</t>
   </si>
   <si>
@@ -218,84 +206,21 @@
     <t>Have</t>
   </si>
   <si>
-    <t>Updated 12/20/2019</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
     <t>Diner Served</t>
   </si>
   <si>
-    <t>Roast Hour 1 (60)</t>
-  </si>
-  <si>
-    <t>WSM Preheat to 250°F (60)</t>
-  </si>
-  <si>
-    <t>Prepare Au Jus (15)</t>
-  </si>
-  <si>
     <t>Carve Prime Rib (15)</t>
   </si>
   <si>
-    <t>Minion Chimney (20)</t>
-  </si>
-  <si>
-    <t>Chimney (30)</t>
-  </si>
-  <si>
-    <t>WK Preheat to 450°F /2nd Chimney (45)</t>
-  </si>
-  <si>
-    <t>Prepare Gravy (15)</t>
-  </si>
-  <si>
-    <t>Carve Turkey (15)</t>
-  </si>
-  <si>
-    <t>Prepare Mashed Potatoes (90)</t>
-  </si>
-  <si>
-    <t>Prepare Brussels Sprouts (30)</t>
-  </si>
-  <si>
-    <t>Roast Brussels Sprouts (45)</t>
-  </si>
-  <si>
     <t>Dinner Served</t>
   </si>
   <si>
-    <t>Turkey Finish begin at 110°F (30)</t>
-  </si>
-  <si>
     <t>Side Prep</t>
   </si>
   <si>
     <t>Start Time</t>
   </si>
   <si>
-    <t>Appetizer Prep (15)</t>
-  </si>
-  <si>
-    <t>Guests Arrive</t>
-  </si>
-  <si>
-    <t>Wash Turkey, Season, tray (30)</t>
-  </si>
-  <si>
-    <t>Reverse Sear at 122°F (WK) (20)</t>
-  </si>
-  <si>
-    <t>Roast Finish, begin at 117°F, Chimney Start (30)</t>
-  </si>
-  <si>
-    <t>Pull at 158°F</t>
-  </si>
-  <si>
-    <t>Preheat Oven to 400°F (15)</t>
-  </si>
-  <si>
     <t>White Bread</t>
   </si>
   <si>
@@ -320,22 +245,142 @@
     <t>Breakfast Casserole</t>
   </si>
   <si>
-    <t>Trim Prime Rib, tie, rub, tray (60)</t>
-  </si>
-  <si>
-    <t>Roast Hour 1 (60) (44°F)</t>
-  </si>
-  <si>
-    <t>Roast Hour 2 (60) (~75°F)</t>
-  </si>
-  <si>
-    <t>Roast Hour 3 (60) (101°F)</t>
-  </si>
-  <si>
-    <t>Done (124°F)</t>
-  </si>
-  <si>
-    <t>Breakfast Casserole (30)</t>
+    <t>4 Tbsp Minced Shallots</t>
+  </si>
+  <si>
+    <t>1 Stick Butter</t>
+  </si>
+  <si>
+    <t>4 Cups Mushrooms</t>
+  </si>
+  <si>
+    <t>2-4 Tbsp Garlic</t>
+  </si>
+  <si>
+    <t>Tarragon, Rosemary, Thyme</t>
+  </si>
+  <si>
+    <t>Balsamic Vinegar</t>
+  </si>
+  <si>
+    <t>Red Wine</t>
+  </si>
+  <si>
+    <t>Beef or Chicken Stock</t>
+  </si>
+  <si>
+    <t>Heavy Cream</t>
+  </si>
+  <si>
+    <t>1 Tbsp Chopped Parsley</t>
+  </si>
+  <si>
+    <t>Mushroom Sauce</t>
+  </si>
+  <si>
+    <t>2 oz EVOO</t>
+  </si>
+  <si>
+    <t>2x32 oz Low Sodium Broth</t>
+  </si>
+  <si>
+    <t>1 lb onions</t>
+  </si>
+  <si>
+    <t>1 pound carrots</t>
+  </si>
+  <si>
+    <t>1 pound celery</t>
+  </si>
+  <si>
+    <t>1 leek</t>
+  </si>
+  <si>
+    <t>8 sprigs fresh thyme</t>
+  </si>
+  <si>
+    <t>10 peppercorns</t>
+  </si>
+  <si>
+    <t>14 oz tomato puree</t>
+  </si>
+  <si>
+    <t>3 oz tomato paste</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Chicken Breast</t>
+  </si>
+  <si>
+    <t>Updated 12/21/2021</t>
+  </si>
+  <si>
+    <t>Cornstarch</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Reverse Sear (15)</t>
+  </si>
+  <si>
+    <t>Resting (45)</t>
+  </si>
+  <si>
+    <t>Roast (Hour 6)</t>
+  </si>
+  <si>
+    <t>Roast (Hour 5)</t>
+  </si>
+  <si>
+    <t>Roast (Hour 4)</t>
+  </si>
+  <si>
+    <t>Roast (Hour 3)</t>
+  </si>
+  <si>
+    <t>Roast (Hour 2)</t>
+  </si>
+  <si>
+    <t>Roast (Hour 1)</t>
+  </si>
+  <si>
+    <t>WSM Prep (1 hour) - 225°F Goal</t>
+  </si>
+  <si>
+    <t>Pull at 127°F</t>
+  </si>
+  <si>
+    <t>Roast Chicken Breast (30 min)</t>
+  </si>
+  <si>
+    <t>Spinach Wilt (30 min)</t>
+  </si>
+  <si>
+    <t>Mushroom Sauce (60 min)</t>
+  </si>
+  <si>
+    <t>Spinach Sauce (30 min)</t>
+  </si>
+  <si>
+    <t>Mashed Potatoes (90 min)</t>
+  </si>
+  <si>
+    <t>Breakfast Casserole (30 min)</t>
+  </si>
+  <si>
+    <t>Final Prime Rib Prep (30 min)</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -359,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,19 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,8 +471,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -573,11 +612,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,6 +666,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -627,79 +699,31 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1016,13 +1040,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75FCA38-FED3-4A01-8E38-224012D308CC}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E64"/>
+  <dimension ref="A2:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,12 +1061,12 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -1051,54 +1075,54 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1106,23 +1130,23 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1130,10 +1154,10 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1141,10 +1165,10 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1152,157 +1176,157 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1310,23 +1334,23 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1334,36 +1358,36 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1371,14 +1395,14 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1387,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1395,10 +1419,10 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -1406,63 +1430,63 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="9" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="B38" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
@@ -1478,7 +1502,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>2</v>
@@ -1489,619 +1513,1056 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="10" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="10"/>
-      <c r="E42" s="10" t="s">
-        <v>40</v>
-      </c>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="10" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="11" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
+      <c r="B52" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
+      <c r="B53" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
+      <c r="B54" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
+      <c r="B55" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
+      <c r="B56" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="B57" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
+      <c r="B58" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
+      <c r="B59" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
+      <c r="B60" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37" t="s">
-        <v>39</v>
-      </c>
+      <c r="B61" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
+      <c r="B62" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
+      <c r="B63" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E51" xr:uid="{4B5DFD91-B9A9-43B2-B765-E7256B02CD9E}"/>
-  <sortState ref="B4:E57">
-    <sortCondition ref="C4:C57"/>
+  <autoFilter ref="B3:E80" xr:uid="{4B5DFD91-B9A9-43B2-B765-E7256B02CD9E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Breakfast Casserole"/>
+        <filter val="Chicken"/>
+        <filter val="Creamed Spinach"/>
+        <filter val="Mashed Potatoes"/>
+        <filter val="Mushroom Sauce"/>
+        <filter val="Other"/>
+        <filter val="Prime Rib"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:E51">
+    <sortCondition ref="C4:C51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="85" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864D93B2-6A05-4217-8083-D1FFAA465936}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:5" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="27" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
-        <v>0.42708333333333298</v>
-      </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="22"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
-        <v>0.4375</v>
-      </c>
-      <c r="C5" s="22"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
-        <v>0.44791666666666602</v>
-      </c>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36">
-        <v>0.46875</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
-        <v>0.47916666666666602</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="D2" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>0.71875</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="E8" s="33">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="F8" s="13">
+        <v>241</v>
+      </c>
+      <c r="G8" s="13">
+        <v>125</v>
+      </c>
+      <c r="H8" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>0.6875</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35">
-        <v>0.48958333333333298</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
-        <v>0.51041666666666596</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35">
-        <v>0.531249999999999</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="16"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
-        <v>0.54166666666666596</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35">
-        <v>0.55208333333333304</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" s="34"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
-        <v>0.562499999999999</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35">
-        <v>0.57291666666666596</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36">
-        <v>0.593749999999999</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="30"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
-        <v>0.60416666666666596</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
-        <v>0.61458333333333304</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36">
-        <v>0.624999999999999</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="30"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36">
-        <v>0.63541666666666596</v>
-      </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
-        <v>0.64583333333333204</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35">
-        <v>0.656249999999999</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="B27" s="17" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>0.67708333333333404</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F10" s="13">
+        <v>240</v>
+      </c>
+      <c r="G10" s="13">
+        <v>118</v>
+      </c>
+      <c r="H10" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>0.65625</v>
+      </c>
+      <c r="C12" s="23"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>0.64583333333333404</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="E14" s="33">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F14" s="13">
+        <v>233</v>
+      </c>
+      <c r="G14" s="13">
+        <v>101</v>
+      </c>
+      <c r="H14" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <v>0.61458333333333404</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>0.593750000000001</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="24"/>
+      <c r="E18" s="33">
+        <v>0.59375</v>
+      </c>
+      <c r="F18" s="13">
+        <v>233</v>
+      </c>
+      <c r="G18" s="13">
         <v>79</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36">
-        <v>0.67708333333333204</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="36">
-        <v>0.687499999999999</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="36">
-        <v>0.69791666666666596</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="35">
-        <v>0.70833333333333204</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35">
-        <v>0.718749999999999</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35">
-        <v>0.72916666666666496</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="D33" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35">
-        <v>0.73958333333333204</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
-        <v>0.749999999999999</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="25">
-        <v>0.76041666666666496</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
-        <v>0.77083333333333204</v>
-      </c>
+      <c r="H18" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>0.58333333333333404</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>0.562500000000001</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>0.55208333333333404</v>
+      </c>
+      <c r="C22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="30"/>
+      <c r="E23" s="33">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F23" s="13">
+        <v>226</v>
+      </c>
+      <c r="G23" s="13">
+        <v>50</v>
+      </c>
+      <c r="H23" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
+        <v>0.531250000000001</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="31"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>0.52083333333333404</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>0.51041666666666796</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="E26" s="33">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="F26" s="13">
+        <v>220</v>
+      </c>
+      <c r="G26" s="13">
+        <v>35</v>
+      </c>
+      <c r="H26" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="C27" s="24"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
+        <v>0.48958333333333398</v>
+      </c>
+      <c r="C28" s="23"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>0.47916666666666802</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>0.468750000000001</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="E30" s="33">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F30" s="13">
+        <v>190</v>
+      </c>
+      <c r="G30" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="C31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18">
+        <v>0.44791666666666802</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="23"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18">
+        <v>0.437500000000001</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
+        <v>0.42708333333333398</v>
+      </c>
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>0.41666666666666802</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18">
+        <v>0.406250000000001</v>
+      </c>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29">
+        <v>0.39583333333333498</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="18"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="18"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="18"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="18"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="18"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="18"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="18"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="18"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="18"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="18"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="18"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="18"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="18"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="18"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="18"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="18"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="18"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="18"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="18"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="18"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="18"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="18"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="18"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
